--- a/Spasial Covid 1.xlsx
+++ b/Spasial Covid 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Tugas, PPT, Buku Kuliah\Semester 6\Analisis Data Spasial\Tugas + Kuis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF15E4-EFD8-467E-8FBE-D623AC92A580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB3841D-ABBF-4EFB-9B61-78C6D50EE23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>KOTA MADIUN</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>KabupatenKota</t>
+  </si>
+  <si>
+    <t>status_risiko</t>
+  </si>
+  <si>
+    <t>fatality_rate</t>
   </si>
 </sst>
 </file>
@@ -179,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +233,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -312,10 +333,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,26 +636,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="20.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="20.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
@@ -625,26 +665,32 @@
       <c r="C1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -654,26 +700,32 @@
       <c r="C2" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>7.23</v>
+      </c>
+      <c r="F2" s="18">
         <v>422</v>
       </c>
-      <c r="E2" s="13">
+      <c r="G2" s="13">
         <v>29</v>
       </c>
-      <c r="F2" s="18">
+      <c r="H2" s="18">
         <v>80.819999999999993</v>
       </c>
-      <c r="G2" s="13">
+      <c r="I2" s="13">
         <v>29.95</v>
       </c>
-      <c r="H2" s="14">
+      <c r="J2" s="14">
         <v>-8.2046139999999994</v>
       </c>
-      <c r="I2" s="14">
+      <c r="K2" s="14">
         <v>111.08768999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -683,26 +735,33 @@
       <c r="C3" s="13">
         <v>2.44</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="F3" s="18">
         <v>727</v>
       </c>
-      <c r="E3" s="13">
+      <c r="G3" s="13">
         <v>43</v>
       </c>
-      <c r="F3" s="18">
+      <c r="H3" s="18">
         <v>86.74</v>
       </c>
-      <c r="G3" s="13">
+      <c r="I3" s="13">
         <v>46.25</v>
       </c>
-      <c r="H3" s="14">
+      <c r="J3" s="14">
         <v>-7.8678270000000001</v>
       </c>
-      <c r="I3" s="14">
+      <c r="K3" s="14">
         <v>111.466003</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -712,33 +771,40 @@
       <c r="C4" s="13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="F4" s="18">
         <v>637</v>
       </c>
-      <c r="E4" s="13">
+      <c r="G4" s="13">
         <v>26</v>
       </c>
-      <c r="F4" s="18">
+      <c r="H4" s="18">
         <v>81.06</v>
       </c>
-      <c r="G4" s="13">
+      <c r="I4" s="13">
         <v>33.909999999999997</v>
       </c>
-      <c r="H4" s="14">
+      <c r="J4" s="14">
         <v>-8.0500000000000007</v>
       </c>
-      <c r="I4" s="14">
+      <c r="K4" s="14">
         <v>111.7166667</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -748,33 +814,40 @@
       <c r="C5" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>5.74</v>
+      </c>
+      <c r="F5" s="18">
         <v>1032</v>
       </c>
-      <c r="E5" s="13">
+      <c r="G5" s="13">
         <v>50</v>
       </c>
-      <c r="F5" s="18">
+      <c r="H5" s="18">
         <v>76.400000000000006</v>
       </c>
-      <c r="G5" s="13">
+      <c r="I5" s="13">
         <v>31.62</v>
       </c>
-      <c r="H5" s="14">
+      <c r="J5" s="14">
         <v>-8.0666667000000007</v>
       </c>
-      <c r="I5" s="14">
+      <c r="K5" s="14">
         <v>111.9</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -784,33 +857,40 @@
       <c r="C6" s="13">
         <v>2.46</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>7.7799999999999994</v>
+      </c>
+      <c r="F6" s="18">
         <v>916</v>
       </c>
-      <c r="E6" s="13">
+      <c r="G6" s="13">
         <v>40</v>
       </c>
-      <c r="F6" s="18">
+      <c r="H6" s="18">
         <v>108.55</v>
       </c>
-      <c r="G6" s="13">
+      <c r="I6" s="13">
         <v>43.94</v>
       </c>
-      <c r="H6" s="20">
+      <c r="J6" s="20">
         <v>-8.1308656999999993</v>
       </c>
-      <c r="I6" s="14">
+      <c r="K6" s="14">
         <v>112.2200091</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -820,33 +900,40 @@
       <c r="C7" s="13">
         <v>2.72</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>8.02</v>
+      </c>
+      <c r="F7" s="18">
         <v>1180</v>
       </c>
-      <c r="E7" s="13">
+      <c r="G7" s="13">
         <v>55</v>
       </c>
-      <c r="F7" s="18">
+      <c r="H7" s="18">
         <v>179.93</v>
       </c>
-      <c r="G7" s="13">
+      <c r="I7" s="13">
         <v>32.229999999999997</v>
       </c>
-      <c r="H7" s="14">
+      <c r="J7" s="14">
         <v>-7.8093560000000002</v>
       </c>
-      <c r="I7" s="14">
+      <c r="K7" s="14">
         <v>112.03235599999999</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -856,33 +943,40 @@
       <c r="C8" s="13">
         <v>2.62</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
+        <v>7.04</v>
+      </c>
+      <c r="F8" s="18">
         <v>752</v>
       </c>
-      <c r="E8" s="13">
+      <c r="G8" s="13">
         <v>80</v>
       </c>
-      <c r="F8" s="18">
+      <c r="H8" s="18">
         <v>265.56</v>
       </c>
-      <c r="G8" s="13">
+      <c r="I8" s="13">
         <v>30.46</v>
       </c>
-      <c r="H8" s="14">
+      <c r="J8" s="14">
         <v>-8.2422090000000008</v>
       </c>
-      <c r="I8" s="14">
+      <c r="K8" s="14">
         <v>112.71521250000001</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -892,33 +986,40 @@
       <c r="C9" s="13">
         <v>2.54</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2.77</v>
+      </c>
+      <c r="F9" s="18">
         <v>625</v>
       </c>
-      <c r="E9" s="13">
+      <c r="G9" s="13">
         <v>39</v>
       </c>
-      <c r="F9" s="18">
+      <c r="H9" s="18">
         <v>102.6</v>
       </c>
-      <c r="G9" s="13">
+      <c r="I9" s="13">
         <v>23.39</v>
       </c>
-      <c r="H9" s="14">
+      <c r="J9" s="14">
         <v>-8.137022</v>
       </c>
-      <c r="I9" s="14">
+      <c r="K9" s="14">
         <v>113.226601</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -928,33 +1029,40 @@
       <c r="C10" s="13">
         <v>2.72</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>5.99</v>
+      </c>
+      <c r="F10" s="18">
         <v>820</v>
       </c>
-      <c r="E10" s="13">
+      <c r="G10" s="13">
         <v>71</v>
       </c>
-      <c r="F10" s="18">
+      <c r="H10" s="18">
         <v>247.99</v>
       </c>
-      <c r="G10" s="13">
+      <c r="I10" s="13">
         <v>33.26</v>
       </c>
-      <c r="H10" s="14">
+      <c r="J10" s="14">
         <v>-8.1723569999999999</v>
       </c>
-      <c r="I10" s="14">
+      <c r="K10" s="14">
         <v>113.70030199999999</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -964,33 +1072,40 @@
       <c r="C11" s="13">
         <v>2.72</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>7.6700000000000008</v>
+      </c>
+      <c r="F11" s="18">
         <v>295</v>
       </c>
-      <c r="E11" s="13">
+      <c r="G11" s="13">
         <v>70</v>
       </c>
-      <c r="F11" s="18">
+      <c r="H11" s="18">
         <v>130.37</v>
       </c>
-      <c r="G11" s="13">
+      <c r="I11" s="13">
         <v>39.590000000000003</v>
       </c>
-      <c r="H11" s="14">
+      <c r="J11" s="14">
         <v>-8.2186110999999897</v>
       </c>
-      <c r="I11" s="14">
+      <c r="K11" s="14">
         <v>114.36694439999999</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1000,33 +1115,40 @@
       <c r="C12" s="13">
         <v>2.78</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="F12" s="18">
         <v>509</v>
       </c>
-      <c r="E12" s="13">
+      <c r="G12" s="13">
         <v>31</v>
       </c>
-      <c r="F12" s="18">
+      <c r="H12" s="18">
         <v>110.24</v>
       </c>
-      <c r="G12" s="13">
+      <c r="I12" s="13">
         <v>39.659999999999997</v>
       </c>
-      <c r="H12" s="14">
+      <c r="J12" s="14">
         <v>-7.9177039999999996</v>
       </c>
-      <c r="I12" s="14">
+      <c r="K12" s="14">
         <v>113.81348300000001</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1036,33 +1158,40 @@
       <c r="C13" s="13">
         <v>2.84</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <v>9.89</v>
+      </c>
+      <c r="F13" s="18">
         <v>411</v>
       </c>
-      <c r="E13" s="13">
+      <c r="G13" s="13">
         <v>30</v>
       </c>
-      <c r="F13" s="18">
+      <c r="H13" s="18">
         <v>83.74</v>
       </c>
-      <c r="G13" s="13">
+      <c r="I13" s="13">
         <v>27.84</v>
       </c>
-      <c r="H13" s="14">
+      <c r="J13" s="14">
         <v>-7.702534</v>
       </c>
-      <c r="I13" s="14">
+      <c r="K13" s="14">
         <v>113.95560500000001</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1072,34 +1201,41 @@
       <c r="C14" s="13">
         <v>2.8</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="28">
+        <v>7.24</v>
+      </c>
+      <c r="F14" s="18">
         <v>679</v>
       </c>
-      <c r="E14" s="13">
+      <c r="G14" s="13">
         <v>43</v>
       </c>
-      <c r="F14" s="18">
+      <c r="H14" s="18">
         <v>218.35</v>
       </c>
-      <c r="G14" s="13">
+      <c r="I14" s="13">
         <v>34.619999999999997</v>
       </c>
-      <c r="H14" s="14">
+      <c r="J14" s="14">
         <v>-7.869796</v>
       </c>
-      <c r="I14" s="14">
+      <c r="K14" s="14">
         <v>113.314206</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1109,33 +1245,40 @@
       <c r="C15" s="13">
         <v>2.8</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>4.03</v>
+      </c>
+      <c r="F15" s="18">
         <v>1090</v>
       </c>
-      <c r="E15" s="13">
+      <c r="G15" s="13">
         <v>49</v>
       </c>
-      <c r="F15" s="18">
+      <c r="H15" s="18">
         <v>151.43</v>
       </c>
-      <c r="G15" s="13">
+      <c r="I15" s="13">
         <v>28.21</v>
       </c>
-      <c r="H15" s="14">
+      <c r="J15" s="14">
         <v>-7.7333299999999996</v>
       </c>
-      <c r="I15" s="14">
+      <c r="K15" s="14">
         <v>112.83333</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1145,33 +1288,40 @@
       <c r="C16" s="13">
         <v>2.72</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>5.4</v>
+      </c>
+      <c r="F16" s="18">
         <v>3283</v>
       </c>
-      <c r="E16" s="13">
+      <c r="G16" s="13">
         <v>70</v>
       </c>
-      <c r="F16" s="18">
+      <c r="H16" s="18">
         <v>127.05</v>
       </c>
-      <c r="G16" s="13">
+      <c r="I16" s="13">
         <v>26.35</v>
       </c>
-      <c r="H16" s="14">
+      <c r="J16" s="14">
         <v>-7.4726129999999999</v>
       </c>
-      <c r="I16" s="14">
+      <c r="K16" s="14">
         <v>112.667542</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1181,34 +1331,41 @@
       <c r="C17" s="13">
         <v>2.8</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <v>9.27</v>
+      </c>
+      <c r="F17" s="18">
         <v>1559</v>
       </c>
-      <c r="E17" s="13">
+      <c r="G17" s="13">
         <v>49</v>
       </c>
-      <c r="F17" s="18">
+      <c r="H17" s="18">
         <v>118.8</v>
       </c>
-      <c r="G17" s="13">
+      <c r="I17" s="13">
         <v>26.35</v>
       </c>
-      <c r="H17" s="14">
+      <c r="J17" s="14">
         <v>-7.5417699999999996</v>
       </c>
-      <c r="I17" s="14">
+      <c r="K17" s="14">
         <v>112.484475</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="L17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -1218,34 +1375,41 @@
       <c r="C18" s="13">
         <v>2.66</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28">
+        <v>5.93</v>
+      </c>
+      <c r="F18" s="18">
         <v>1182</v>
       </c>
-      <c r="E18" s="13">
+      <c r="G18" s="13">
         <v>57</v>
       </c>
-      <c r="F18" s="18">
+      <c r="H18" s="18">
         <v>125.94</v>
       </c>
-      <c r="G18" s="13">
+      <c r="I18" s="13">
         <v>57.25</v>
       </c>
-      <c r="H18" s="14">
+      <c r="J18" s="14">
         <v>-7.5468390000000003</v>
       </c>
-      <c r="I18" s="14">
+      <c r="K18" s="14">
         <v>112.226479</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1255,33 +1419,40 @@
       <c r="C19" s="13">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28">
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="F19" s="18">
         <v>902</v>
       </c>
-      <c r="E19" s="13">
+      <c r="G19" s="13">
         <v>29</v>
       </c>
-      <c r="F19" s="18">
+      <c r="H19" s="18">
         <v>122.73</v>
       </c>
-      <c r="G19" s="13">
+      <c r="I19" s="13">
         <v>39.31</v>
       </c>
-      <c r="H19" s="14">
+      <c r="J19" s="14">
         <v>-7.5991220000000004</v>
       </c>
-      <c r="I19" s="14">
+      <c r="K19" s="14">
         <v>111.910515</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
@@ -1291,33 +1462,40 @@
       <c r="C20" s="13">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F20" s="18">
         <v>717</v>
       </c>
-      <c r="E20" s="13">
+      <c r="G20" s="13">
         <v>32</v>
       </c>
-      <c r="F20" s="18">
+      <c r="H20" s="18">
         <v>78.3</v>
       </c>
-      <c r="G20" s="13">
+      <c r="I20" s="13">
         <v>26.68</v>
       </c>
-      <c r="H20" s="14">
+      <c r="J20" s="14">
         <v>-7.6151900000000001</v>
       </c>
-      <c r="I20" s="14">
+      <c r="K20" s="14">
         <v>111.654839</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
@@ -1327,33 +1505,40 @@
       <c r="C21" s="13">
         <v>2.62</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28">
+        <v>6.58</v>
+      </c>
+      <c r="F21" s="18">
         <v>974</v>
       </c>
-      <c r="E21" s="13">
+      <c r="G21" s="13">
         <v>26</v>
       </c>
-      <c r="F21" s="18">
+      <c r="H21" s="18">
         <v>65.09</v>
       </c>
-      <c r="G21" s="13">
+      <c r="I21" s="13">
         <v>32.06</v>
       </c>
-      <c r="H21" s="14">
+      <c r="J21" s="14">
         <v>-7.6493412999999997</v>
       </c>
-      <c r="I21" s="14">
+      <c r="K21" s="14">
         <v>111.33815929999901</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
@@ -1363,33 +1548,40 @@
       <c r="C22" s="13">
         <v>2.73</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="28">
+        <v>6.63</v>
+      </c>
+      <c r="F22" s="18">
         <v>671</v>
       </c>
-      <c r="E22" s="13">
+      <c r="G22" s="13">
         <v>30</v>
       </c>
-      <c r="F22" s="18">
+      <c r="H22" s="18">
         <v>128.19</v>
       </c>
-      <c r="G22" s="13">
+      <c r="I22" s="13">
         <v>33.770000000000003</v>
       </c>
-      <c r="H22" s="14">
+      <c r="J22" s="14">
         <v>-7.3899299999999997</v>
       </c>
-      <c r="I22" s="14">
+      <c r="K22" s="14">
         <v>111.46193</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
@@ -1399,33 +1591,40 @@
       <c r="C23" s="13">
         <v>2.72</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28">
+        <v>6.87</v>
+      </c>
+      <c r="F23" s="18">
         <v>592</v>
       </c>
-      <c r="E23" s="13">
+      <c r="G23" s="13">
         <v>54</v>
       </c>
-      <c r="F23" s="18">
+      <c r="H23" s="18">
         <v>161.1</v>
       </c>
-      <c r="G23" s="13">
+      <c r="I23" s="13">
         <v>41.94</v>
       </c>
-      <c r="H23" s="14">
+      <c r="J23" s="14">
         <v>-7.1501999999999999</v>
       </c>
-      <c r="I23" s="14">
+      <c r="K23" s="14">
         <v>111.8817</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
@@ -1435,33 +1634,40 @@
       <c r="C24" s="13">
         <v>2.84</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="28">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F24" s="18">
         <v>653</v>
       </c>
-      <c r="E24" s="13">
+      <c r="G24" s="13">
         <v>44</v>
       </c>
-      <c r="F24" s="18">
+      <c r="H24" s="18">
         <v>187.13</v>
       </c>
-      <c r="G24" s="13">
+      <c r="I24" s="13">
         <v>32.53</v>
       </c>
-      <c r="H24" s="14">
+      <c r="J24" s="14">
         <v>-6.8878000000000004</v>
       </c>
-      <c r="I24" s="14">
+      <c r="K24" s="14">
         <v>112.0518</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -1471,33 +1677,40 @@
       <c r="C25" s="13">
         <v>2.84</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="28">
+        <v>5.65</v>
+      </c>
+      <c r="F25" s="18">
         <v>754</v>
       </c>
-      <c r="E25" s="13">
+      <c r="G25" s="13">
         <v>57</v>
       </c>
-      <c r="F25" s="18">
+      <c r="H25" s="18">
         <v>164.68</v>
       </c>
-      <c r="G25" s="13">
+      <c r="I25" s="13">
         <v>31.46</v>
       </c>
-      <c r="H25" s="14">
+      <c r="J25" s="14">
         <v>-7.1189</v>
       </c>
-      <c r="I25" s="14">
+      <c r="K25" s="14">
         <v>112.4175</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -1507,33 +1720,40 @@
       <c r="C26" s="13">
         <v>2.75</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="28">
+        <v>9.94</v>
+      </c>
+      <c r="F26" s="18">
         <v>1101</v>
       </c>
-      <c r="E26" s="13">
+      <c r="G26" s="13">
         <v>69</v>
       </c>
-      <c r="F26" s="18">
+      <c r="H26" s="18">
         <v>164.05</v>
       </c>
-      <c r="G26" s="13">
+      <c r="I26" s="13">
         <v>24.89</v>
       </c>
-      <c r="H26" s="14">
+      <c r="J26" s="14">
         <v>-7.15665</v>
       </c>
-      <c r="I26" s="14">
+      <c r="K26" s="14">
         <v>112.6555</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
@@ -1543,33 +1763,40 @@
       <c r="C27" s="13">
         <v>2.8</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="28">
+        <v>5.3199999999999994</v>
+      </c>
+      <c r="F27" s="18">
         <v>1059</v>
       </c>
-      <c r="E27" s="13">
+      <c r="G27" s="13">
         <v>28</v>
       </c>
-      <c r="F27" s="18">
+      <c r="H27" s="18">
         <v>204</v>
       </c>
-      <c r="G27" s="13">
+      <c r="I27" s="13">
         <v>17.73</v>
       </c>
-      <c r="H27" s="14">
+      <c r="J27" s="14">
         <v>-7.0306911999999997</v>
       </c>
-      <c r="I27" s="14">
+      <c r="K27" s="14">
         <v>112.7450068</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
@@ -1579,33 +1806,40 @@
       <c r="C28" s="13">
         <v>2.58</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="28">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F28" s="18">
         <v>786</v>
       </c>
-      <c r="E28" s="13">
+      <c r="G28" s="13">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
+      <c r="H28" s="18">
         <v>224.74</v>
       </c>
-      <c r="G28" s="13">
+      <c r="I28" s="13">
         <v>47.05</v>
       </c>
-      <c r="H28" s="14">
+      <c r="J28" s="14">
         <v>-7.1970999999999998</v>
       </c>
-      <c r="I28" s="14">
+      <c r="K28" s="14">
         <v>113.24420000000001</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1615,33 +1849,40 @@
       <c r="C29" s="13">
         <v>2.63</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="F29" s="18">
         <v>1073</v>
       </c>
-      <c r="E29" s="13">
+      <c r="G29" s="13">
         <v>32</v>
       </c>
-      <c r="F29" s="18">
+      <c r="H29" s="18">
         <v>129.41</v>
       </c>
-      <c r="G29" s="13">
+      <c r="I29" s="13">
         <v>26.67</v>
       </c>
-      <c r="H29" s="14">
+      <c r="J29" s="14">
         <v>-7.1666667000000004</v>
       </c>
-      <c r="I29" s="14">
+      <c r="K29" s="14">
         <v>113.4666667</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -1651,33 +1892,40 @@
       <c r="C30" s="13">
         <v>2.8</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="28">
+        <v>10.61</v>
+      </c>
+      <c r="F30" s="18">
         <v>563</v>
       </c>
-      <c r="E30" s="13">
+      <c r="G30" s="13">
         <v>36</v>
       </c>
-      <c r="F30" s="18">
+      <c r="H30" s="18">
         <v>220.23</v>
       </c>
-      <c r="G30" s="13">
+      <c r="I30" s="13">
         <v>17.18</v>
       </c>
-      <c r="H30" s="14">
+      <c r="J30" s="14">
         <v>-6.9253999000000004</v>
       </c>
-      <c r="I30" s="14">
+      <c r="K30" s="14">
         <v>113.9060624</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-    </row>
-    <row r="31" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1687,33 +1935,40 @@
       <c r="C31" s="13">
         <v>2.68</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="28">
+        <v>4.43</v>
+      </c>
+      <c r="F31" s="18">
         <v>4524</v>
       </c>
-      <c r="E31" s="13">
+      <c r="G31" s="13">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="H31" s="18">
         <v>22.19</v>
       </c>
-      <c r="G31" s="13">
+      <c r="I31" s="13">
         <v>32.58</v>
       </c>
-      <c r="H31" s="14">
+      <c r="J31" s="14">
         <v>-7.8228400000000002</v>
       </c>
-      <c r="I31" s="14">
+      <c r="K31" s="14">
         <v>112.011864</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-    </row>
-    <row r="32" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
@@ -1723,33 +1978,40 @@
       <c r="C32" s="13">
         <v>2.36</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="28">
+        <v>7.17</v>
+      </c>
+      <c r="F32" s="18">
         <v>4579</v>
       </c>
-      <c r="E32" s="13">
+      <c r="G32" s="13">
         <v>13</v>
       </c>
-      <c r="F32" s="18">
+      <c r="H32" s="18">
         <v>11.1</v>
       </c>
-      <c r="G32" s="13">
+      <c r="I32" s="13">
         <v>43.43</v>
       </c>
-      <c r="H32" s="14">
+      <c r="J32" s="14">
         <v>-8.1014418999999993</v>
       </c>
-      <c r="I32" s="14">
+      <c r="K32" s="14">
         <v>112.162762</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-    </row>
-    <row r="33" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>1</v>
       </c>
@@ -1759,33 +2021,40 @@
       <c r="C33" s="13">
         <v>2.6</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="25">
+        <v>0</v>
+      </c>
+      <c r="E33" s="28">
+        <v>7.2499999999999991</v>
+      </c>
+      <c r="F33" s="18">
         <v>5808</v>
       </c>
-      <c r="E33" s="13">
+      <c r="G33" s="13">
         <v>42</v>
       </c>
-      <c r="F33" s="18">
+      <c r="H33" s="18">
         <v>38.770000000000003</v>
       </c>
-      <c r="G33" s="13">
+      <c r="I33" s="13">
         <v>34.049999999999997</v>
       </c>
-      <c r="H33" s="14">
+      <c r="J33" s="14">
         <v>-7.9797000000000002</v>
       </c>
-      <c r="I33" s="14">
+      <c r="K33" s="14">
         <v>112.63039999999999</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-    </row>
-    <row r="34" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -1795,33 +2064,40 @@
       <c r="C34" s="13">
         <v>2.71</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="F34" s="18">
         <v>4229</v>
       </c>
-      <c r="E34" s="13">
+      <c r="G34" s="13">
         <v>10</v>
       </c>
-      <c r="F34" s="18">
+      <c r="H34" s="18">
         <v>17.72</v>
       </c>
-      <c r="G34" s="13">
+      <c r="I34" s="13">
         <v>35.18</v>
       </c>
-      <c r="H34" s="14">
+      <c r="J34" s="14">
         <v>-7.7539649999999902</v>
       </c>
-      <c r="I34" s="14">
+      <c r="K34" s="14">
         <v>113.21067499999999</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-    </row>
-    <row r="35" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
@@ -1831,33 +2107,40 @@
       <c r="C35" s="13">
         <v>2.86</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="25">
+        <v>0</v>
+      </c>
+      <c r="E35" s="28">
+        <v>10.61</v>
+      </c>
+      <c r="F35" s="18">
         <v>5894</v>
       </c>
-      <c r="E35" s="13">
+      <c r="G35" s="13">
         <v>12</v>
       </c>
-      <c r="F35" s="18">
+      <c r="H35" s="18">
         <v>13.4</v>
       </c>
-      <c r="G35" s="13">
+      <c r="I35" s="13">
         <v>41.75</v>
       </c>
-      <c r="H35" s="14">
+      <c r="J35" s="14">
         <v>-7.6448999999999998</v>
       </c>
-      <c r="I35" s="14">
+      <c r="K35" s="14">
         <v>112.9033</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-    </row>
-    <row r="36" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>5</v>
       </c>
@@ -1867,33 +2150,40 @@
       <c r="C36" s="13">
         <v>2.64</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="25">
+        <v>0</v>
+      </c>
+      <c r="E36" s="28">
+        <v>10.979999999999999</v>
+      </c>
+      <c r="F36" s="18">
         <v>6553</v>
       </c>
-      <c r="E36" s="13">
+      <c r="G36" s="13">
         <v>18</v>
       </c>
-      <c r="F36" s="18">
+      <c r="H36" s="18">
         <v>8.09</v>
       </c>
-      <c r="G36" s="13">
+      <c r="I36" s="13">
         <v>37.33</v>
       </c>
-      <c r="H36" s="14">
+      <c r="J36" s="14">
         <v>-7.4880750000000003</v>
       </c>
-      <c r="I36" s="14">
+      <c r="K36" s="14">
         <v>112.427027</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
-    </row>
-    <row r="37" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -1903,33 +2193,40 @@
       <c r="C37" s="13">
         <v>2.41</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="25">
+        <v>0</v>
+      </c>
+      <c r="E37" s="28">
+        <v>2.96</v>
+      </c>
+      <c r="F37" s="18">
         <v>5754</v>
       </c>
-      <c r="E37" s="13">
+      <c r="G37" s="13">
         <v>18</v>
       </c>
-      <c r="F37" s="18">
+      <c r="H37" s="18">
         <v>8.83</v>
       </c>
-      <c r="G37" s="13">
+      <c r="I37" s="13">
         <v>39.06</v>
       </c>
-      <c r="H37" s="14">
+      <c r="J37" s="14">
         <v>-7.6277530000000002</v>
       </c>
-      <c r="I37" s="14">
+      <c r="K37" s="14">
         <v>111.505483</v>
       </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-    </row>
-    <row r="38" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>4</v>
       </c>
@@ -1939,33 +2236,40 @@
       <c r="C38" s="13">
         <v>2.7</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="25">
+        <v>0</v>
+      </c>
+      <c r="E38" s="28">
+        <v>8.34</v>
+      </c>
+      <c r="F38" s="18">
         <v>8200</v>
       </c>
-      <c r="E38" s="13">
+      <c r="G38" s="13">
         <v>139</v>
       </c>
-      <c r="F38" s="18">
+      <c r="H38" s="18">
         <v>145.66999999999999</v>
       </c>
-      <c r="G38" s="13">
+      <c r="I38" s="13">
         <v>29.88</v>
       </c>
-      <c r="H38" s="14">
+      <c r="J38" s="14">
         <v>-7.2891659999999998</v>
       </c>
-      <c r="I38" s="14">
+      <c r="K38" s="14">
         <v>112.734398</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-    </row>
-    <row r="39" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>8</v>
       </c>
@@ -1975,58 +2279,69 @@
       <c r="C39" s="15">
         <v>2.61</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="28">
+        <v>9.4</v>
+      </c>
+      <c r="F39" s="19">
         <v>1558</v>
       </c>
-      <c r="E39" s="15">
+      <c r="G39" s="15">
         <v>15</v>
       </c>
-      <c r="F39" s="19">
+      <c r="H39" s="19">
         <v>8.1199999999999992</v>
       </c>
-      <c r="G39" s="15">
+      <c r="I39" s="15">
         <v>31.16</v>
       </c>
-      <c r="H39" s="16">
+      <c r="J39" s="16">
         <v>-7.8670999999999998</v>
       </c>
-      <c r="I39" s="16">
+      <c r="K39" s="16">
         <v>112.5239</v>
       </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="6"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="25"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spasial Covid 1.xlsx
+++ b/Spasial Covid 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Tugas, PPT, Buku Kuliah\Semester 6\Analisis Data Spasial\Tugas + Kuis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB3841D-ABBF-4EFB-9B61-78C6D50EE23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281F4CF4-667B-4D69-8491-3519C4E32246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>jumlah_kasus_covid</t>
   </si>
   <si>
-    <t>skor_risiko</t>
-  </si>
-  <si>
     <t>kepadatan_penduduk</t>
   </si>
   <si>
@@ -174,10 +171,13 @@
     <t>KabupatenKota</t>
   </si>
   <si>
-    <t>status_risiko</t>
-  </si>
-  <si>
     <t>fatality_rate</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>status_risiko2</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -242,8 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,29 +338,317 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -371,6 +659,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95BDC164-8548-45F6-BE58-1B5491791733}" name="Table2" displayName="Table2" ref="A1:K39" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:K39" xr:uid="{AA7EA4B7-91F7-4E68-AAD2-640210ACA007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K39">
+    <sortCondition ref="A1:A39"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{69771473-A736-4626-9DF4-F83E4AAEF3CE}" name="No" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0538EF10-D0B2-4BD9-8365-2B94477E8B21}" name="KabupatenKota" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{31821A37-A0A4-4FC1-9DE2-216AEABB15E0}" name="jumlah_kasus_covid" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{F4EFD43C-FB49-477D-BE47-E37B0E678E58}" name="status_risiko2" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E8D7BDDE-7225-419A-9EB4-97DFA51B6B13}" name="fatality_rate" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1785D0BD-6561-4687-ADBE-B212A5995275}" name="kepadatan_penduduk" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9E071E34-D335-43A3-94D1-604C207A0D48}" name="jumlah_faskes" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{8905280E-C68A-4325-ABCC-1655641447B7}" name="jumlah_miskin" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5F216EFA-DB17-44A4-818B-5E476A7A440F}" name="persentase_keluhan_kesehatan" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{FF73ACB2-3643-409C-B4E6-64A74EFDC164}" name="Lat" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{D719A855-AA85-4F34-BA84-65F34278D281}" name="Lon" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,49 +950,51 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="22"/>
+    <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="20.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>9</v>
@@ -691,19 +1004,19 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13">
+      <c r="C2" s="13">
         <v>739</v>
       </c>
-      <c r="C2" s="13">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
         <v>7.23</v>
       </c>
       <c r="F2" s="18">
@@ -726,19 +1039,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13">
+      <c r="C3" s="13">
         <v>1206</v>
       </c>
-      <c r="C3" s="13">
-        <v>2.44</v>
-      </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
         <v>4.6899999999999995</v>
       </c>
       <c r="F3" s="18">
@@ -762,19 +1075,19 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13">
+      <c r="C4" s="13">
         <v>1036</v>
       </c>
-      <c r="C4" s="13">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
         <v>7.4399999999999995</v>
       </c>
       <c r="F4" s="18">
@@ -805,19 +1118,19 @@
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13">
+      <c r="C5" s="13">
         <v>1323</v>
       </c>
-      <c r="C5" s="13">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D5" s="25">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
         <v>5.74</v>
       </c>
       <c r="F5" s="18">
@@ -848,19 +1161,19 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13">
+      <c r="C6" s="13">
         <v>1677</v>
       </c>
-      <c r="C6" s="13">
-        <v>2.46</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
         <v>7.7799999999999994</v>
       </c>
       <c r="F6" s="18">
@@ -891,19 +1204,19 @@
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13">
+      <c r="C7" s="13">
         <v>2387</v>
       </c>
-      <c r="C7" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
         <v>8.02</v>
       </c>
       <c r="F7" s="18">
@@ -934,19 +1247,19 @@
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13">
+      <c r="C8" s="13">
         <v>1469</v>
       </c>
-      <c r="C8" s="13">
-        <v>2.62</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
         <v>7.04</v>
       </c>
       <c r="F8" s="18">
@@ -977,19 +1290,19 @@
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13">
+      <c r="C9" s="13">
         <v>2396</v>
       </c>
-      <c r="C9" s="13">
-        <v>2.54</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
         <v>2.77</v>
       </c>
       <c r="F9" s="18">
@@ -1020,19 +1333,19 @@
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
+      <c r="C10" s="13">
         <v>4354</v>
       </c>
-      <c r="C10" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
         <v>5.99</v>
       </c>
       <c r="F10" s="18">
@@ -1063,19 +1376,19 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13">
+      <c r="C11" s="13">
         <v>4045</v>
       </c>
-      <c r="C11" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="D11" s="29">
         <v>0</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>7.6700000000000008</v>
       </c>
       <c r="F11" s="18">
@@ -1106,19 +1419,19 @@
       <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13">
+      <c r="C12" s="13">
         <v>1484</v>
       </c>
-      <c r="C12" s="13">
-        <v>2.78</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>6.1400000000000006</v>
       </c>
       <c r="F12" s="18">
@@ -1149,19 +1462,19 @@
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13">
+      <c r="C13" s="13">
         <v>1681</v>
       </c>
-      <c r="C13" s="13">
-        <v>2.84</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="D13" s="29">
         <v>0</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>9.89</v>
       </c>
       <c r="F13" s="18">
@@ -1192,19 +1505,19 @@
       <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13">
+      <c r="C14" s="13">
         <v>2188</v>
       </c>
-      <c r="C14" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="D14" s="29">
         <v>0</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>7.24</v>
       </c>
       <c r="F14" s="18">
@@ -1236,19 +1549,19 @@
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13">
+      <c r="C15" s="13">
         <v>2180</v>
       </c>
-      <c r="C15" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="D15" s="29">
         <v>0</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <v>4.03</v>
       </c>
       <c r="F15" s="18">
@@ -1279,19 +1592,19 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13">
+      <c r="C16" s="13">
         <v>7960</v>
       </c>
-      <c r="C16" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="D16" s="25">
-        <v>1</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
         <v>5.4</v>
       </c>
       <c r="F16" s="18">
@@ -1322,19 +1635,19 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13">
+      <c r="C17" s="13">
         <v>1477</v>
       </c>
-      <c r="C17" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="D17" s="29">
         <v>0</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <v>9.27</v>
       </c>
       <c r="F17" s="18">
@@ -1366,19 +1679,19 @@
       <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="13">
+      <c r="C18" s="13">
         <v>2285</v>
       </c>
-      <c r="C18" s="13">
-        <v>2.66</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="D18" s="29">
         <v>0</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <v>5.93</v>
       </c>
       <c r="F18" s="18">
@@ -1410,19 +1723,19 @@
       <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="13">
+      <c r="C19" s="13">
         <v>1087</v>
       </c>
-      <c r="C19" s="13">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26">
         <v>4.9799999999999995</v>
       </c>
       <c r="F19" s="18">
@@ -1453,19 +1766,19 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="13">
+      <c r="C20" s="13">
         <v>383</v>
       </c>
-      <c r="C20" s="13">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="28">
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
         <v>2.0699999999999998</v>
       </c>
       <c r="F20" s="18">
@@ -1496,19 +1809,19 @@
       <c r="U20" s="7"/>
     </row>
     <row r="21" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="13">
+      <c r="C21" s="13">
         <v>934</v>
       </c>
-      <c r="C21" s="13">
-        <v>2.62</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0</v>
-      </c>
-      <c r="E21" s="28">
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
         <v>6.58</v>
       </c>
       <c r="F21" s="18">
@@ -1539,19 +1852,19 @@
       <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="13">
+      <c r="C22" s="13">
         <v>585</v>
       </c>
-      <c r="C22" s="13">
-        <v>2.73</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="D22" s="29">
         <v>0</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
         <v>6.63</v>
       </c>
       <c r="F22" s="18">
@@ -1582,19 +1895,19 @@
       <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="13">
+      <c r="C23" s="13">
         <v>1265</v>
       </c>
-      <c r="C23" s="13">
-        <v>2.72</v>
-      </c>
-      <c r="D23" s="25">
+      <c r="D23" s="29">
         <v>0</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <v>6.87</v>
       </c>
       <c r="F23" s="18">
@@ -1625,19 +1938,19 @@
       <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="13">
+      <c r="C24" s="13">
         <v>1750</v>
       </c>
-      <c r="C24" s="13">
-        <v>2.84</v>
-      </c>
-      <c r="D24" s="25">
+      <c r="D24" s="29">
         <v>0</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
         <v>8.0500000000000007</v>
       </c>
       <c r="F24" s="18">
@@ -1668,19 +1981,19 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="13">
+      <c r="C25" s="13">
         <v>1712</v>
       </c>
-      <c r="C25" s="13">
-        <v>2.84</v>
-      </c>
-      <c r="D25" s="25">
+      <c r="D25" s="29">
         <v>0</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="26">
         <v>5.65</v>
       </c>
       <c r="F25" s="18">
@@ -1711,19 +2024,19 @@
       <c r="U25" s="7"/>
     </row>
     <row r="26" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="13">
+      <c r="C26" s="13">
         <v>4145</v>
       </c>
-      <c r="C26" s="13">
-        <v>2.75</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="28">
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26">
         <v>9.94</v>
       </c>
       <c r="F26" s="18">
@@ -1754,19 +2067,19 @@
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="13">
+      <c r="C27" s="13">
         <v>984</v>
       </c>
-      <c r="C27" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="D27" s="25">
+      <c r="D27" s="29">
         <v>0</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="26">
         <v>5.3199999999999994</v>
       </c>
       <c r="F27" s="18">
@@ -1797,19 +2110,19 @@
       <c r="U27" s="7"/>
     </row>
     <row r="28" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="13">
+      <c r="C28" s="13">
         <v>509</v>
       </c>
-      <c r="C28" s="13">
-        <v>2.58</v>
-      </c>
-      <c r="D28" s="25">
+      <c r="D28" s="29">
         <v>0</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="26">
         <v>5.0599999999999996</v>
       </c>
       <c r="F28" s="18">
@@ -1840,19 +2153,19 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="13">
+      <c r="C29" s="13">
         <v>747</v>
       </c>
-      <c r="C29" s="13">
-        <v>2.63</v>
-      </c>
-      <c r="D29" s="25">
+      <c r="D29" s="29">
         <v>0</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="26">
         <v>5.2</v>
       </c>
       <c r="F29" s="18">
@@ -1883,19 +2196,19 @@
       <c r="U29" s="7"/>
     </row>
     <row r="30" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="13">
+      <c r="C30" s="13">
         <v>1191</v>
       </c>
-      <c r="C30" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="26">
         <v>10.61</v>
       </c>
       <c r="F30" s="18">
@@ -1926,19 +2239,19 @@
       <c r="U30" s="7"/>
     </row>
     <row r="31" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="13">
+      <c r="C31" s="13">
         <v>708</v>
       </c>
-      <c r="C31" s="13">
-        <v>2.68</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0</v>
-      </c>
-      <c r="E31" s="28">
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
         <v>4.43</v>
       </c>
       <c r="F31" s="18">
@@ -1969,19 +2282,19 @@
       <c r="U31" s="7"/>
     </row>
     <row r="32" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="13">
+      <c r="C32" s="13">
         <v>657</v>
       </c>
-      <c r="C32" s="13">
-        <v>2.36</v>
-      </c>
-      <c r="D32" s="25">
-        <v>0</v>
-      </c>
-      <c r="E32" s="28">
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
         <v>7.17</v>
       </c>
       <c r="F32" s="18">
@@ -2012,19 +2325,19 @@
       <c r="U32" s="7"/>
     </row>
     <row r="33" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="13">
+      <c r="C33" s="13">
         <v>3667</v>
       </c>
-      <c r="C33" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="D33" s="25">
-        <v>0</v>
-      </c>
-      <c r="E33" s="28">
+      <c r="D33" s="29">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26">
         <v>7.2499999999999991</v>
       </c>
       <c r="F33" s="18">
@@ -2055,19 +2368,19 @@
       <c r="U33" s="7"/>
     </row>
     <row r="34" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="13">
+      <c r="C34" s="13">
         <v>1419</v>
       </c>
-      <c r="C34" s="13">
-        <v>2.71</v>
-      </c>
-      <c r="D34" s="25">
-        <v>0</v>
-      </c>
-      <c r="E34" s="28">
+      <c r="D34" s="29">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26">
         <v>6.5600000000000005</v>
       </c>
       <c r="F34" s="18">
@@ -2098,19 +2411,19 @@
       <c r="U34" s="7"/>
     </row>
     <row r="35" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="13">
+      <c r="C35" s="13">
         <v>995</v>
       </c>
-      <c r="C35" s="13">
-        <v>2.86</v>
-      </c>
-      <c r="D35" s="25">
+      <c r="D35" s="29">
         <v>0</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="26">
         <v>10.61</v>
       </c>
       <c r="F35" s="18">
@@ -2141,19 +2454,19 @@
       <c r="U35" s="7"/>
     </row>
     <row r="36" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="13">
+      <c r="C36" s="13">
         <v>1015</v>
       </c>
-      <c r="C36" s="13">
-        <v>2.64</v>
-      </c>
-      <c r="D36" s="25">
-        <v>0</v>
-      </c>
-      <c r="E36" s="28">
+      <c r="D36" s="29">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26">
         <v>10.979999999999999</v>
       </c>
       <c r="F36" s="18">
@@ -2184,19 +2497,19 @@
       <c r="U36" s="7"/>
     </row>
     <row r="37" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="13">
+      <c r="C37" s="13">
         <v>397</v>
       </c>
-      <c r="C37" s="13">
-        <v>2.41</v>
-      </c>
-      <c r="D37" s="25">
-        <v>0</v>
-      </c>
-      <c r="E37" s="28">
+      <c r="D37" s="29">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26">
         <v>2.96</v>
       </c>
       <c r="F37" s="18">
@@ -2227,19 +2540,19 @@
       <c r="U37" s="7"/>
     </row>
     <row r="38" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="13">
+      <c r="C38" s="13">
         <v>18122</v>
       </c>
-      <c r="C38" s="13">
-        <v>2.7</v>
-      </c>
-      <c r="D38" s="25">
+      <c r="D38" s="29">
         <v>0</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="26">
         <v>8.34</v>
       </c>
       <c r="F38" s="18">
@@ -2270,19 +2583,19 @@
       <c r="U38" s="7"/>
     </row>
     <row r="39" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="15">
+      <c r="C39" s="15">
         <v>1039</v>
       </c>
-      <c r="C39" s="15">
-        <v>2.61</v>
-      </c>
-      <c r="D39" s="25">
-        <v>0</v>
-      </c>
-      <c r="E39" s="28">
+      <c r="D39" s="29">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26">
         <v>9.4</v>
       </c>
       <c r="F39" s="19">
@@ -2313,11 +2626,10 @@
       <c r="U39" s="7"/>
     </row>
     <row r="40" spans="1:21" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -2331,10 +2643,10 @@
       <c r="U40" s="7"/>
     </row>
     <row r="41" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="24"/>
       <c r="O41" s="9"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2346,5 +2658,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>